--- a/biology/Botanique/Narthécie_des_marais/Narthécie_des_marais.xlsx
+++ b/biology/Botanique/Narthécie_des_marais/Narthécie_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Narth%C3%A9cie_des_marais</t>
+          <t>Narthécie_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narthecium ossifragum
 La Narthécie des marais (Narthecium ossifragum) est une plante herbacée de la famille des Narthéciacées qui pousse dans les tourbières européennes.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Narth%C3%A9cie_des_marais</t>
+          <t>Narthécie_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,15 +528,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante moyenne (10 à 40 cm), érigée, à fleurs jaunes en épi, de forme étoilée. Les filets des étamines sont couverts de poils jaunes.
 Les feuilles sont linéaires, vert glauque.
-Description d'Hippolyte Coste (1858 - 1924)[1],[2] : « Plante vivace de 15-40 cm., glabre, à souche horizontale rampante ; tige un peu courbée à la base, puis dressée, raide, cylindracée, striée, à la fin rougeâtre, munie dès la base de bractées écartées, incurvées au sommet ; feuilles toutes radicales, égalant au moins le milieu de la tige, larges de 3-5 mm., fortement nervées, brièvement engaînantes, non ou à peine membraneuses aux bords ; grappe étroite ; capsule dressée ainsi que le pédicelle, conique-lancéolée, terminée en pointe fine 4-5 fois plus courte qu'elle. »
-Répartition : marais et landes tourbeux, dans l'Ouest, le Centre, les Pyrénées. Europe occidentale et boréale ; Lazistan ; Amérique boréale[1],[2].
+Description d'Hippolyte Coste (1858 - 1924), : « Plante vivace de 15-40 cm., glabre, à souche horizontale rampante ; tige un peu courbée à la base, puis dressée, raide, cylindracée, striée, à la fin rougeâtre, munie dès la base de bractées écartées, incurvées au sommet ; feuilles toutes radicales, égalant au moins le milieu de la tige, larges de 3-5 mm., fortement nervées, brièvement engaînantes, non ou à peine membraneuses aux bords ; grappe étroite ; capsule dressée ainsi que le pédicelle, conique-lancéolée, terminée en pointe fine 4-5 fois plus courte qu'elle. »
+Répartition : marais et landes tourbeux, dans l'Ouest, le Centre, les Pyrénées. Europe occidentale et boréale ; Lazistan ; Amérique boréale,.
 Courante et non protégée sur le plateau des Hautes Fagnes en Wallonie (Belgique).
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Narthécie_des_marais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narth%C3%A9cie_des_marais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-septembre
 Type d'inflorescence : épi simple
